--- a/Assets/Resources/GuideResources/GuideDB_day6.xlsx
+++ b/Assets/Resources/GuideResources/GuideDB_day6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\행잉\Data\가이드창\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\행잉\Hanging\Assets\Resources\GuideResources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -182,18 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;최상급 시민&gt;
-마르티네즈, 헤르난데즈, 로페즈, 산체스, 리베라, 러셀, 리처즈, 멘데즈, 헤일
-&lt;상급 시민&gt;
-가르시아, 루이스, 넬슨, 에드워즈, 필립스, 반즈, 제이콥스, 크로스, 프로이드
-&lt;중급 시민&gt;테일러, 화이트, 잭슨, 앤더슨, 로드리게즈, 알렌, 콜린스, 로저스, 레이놀즈, 보이드, 해리슨, 라모스, 가렛, 메디나, 다니엘, 델가도, 오르테가, 무디
-&lt;하급 시민&gt;
-스미스, 데이비스, 마틴, 그린, 페레즈, 하워드, 알렉산더, 마이어스, 디아즈, 스티븐스, 라일리, 루이즈, 라이언, 메이어, 산티아, 슈나이더, 모란, 하몬
-&lt;최하급 시민&gt;
-브라운, 그레이, 젠킨스, 왓슨, 오티즈, 로즈, 페르난데즈, 오브라이언, 프랜시스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1급: 살인 / 2급: 상해, 폭행, 강도 / 3급: 강간, 강제 추행 / 4급: 협박, 공갈, 사기 / 5급: 모욕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -293,6 +281,19 @@
   </si>
   <si>
     <t>G등급 구역 밖에 있는 최하급 시민은 불법 이동자로 취급, 이 경우 무조건 사형한다. (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;최상급 시민&gt;
+마르티네즈, 헤르난데즈, 로페즈, 산체스, 리베라, 러셀, 리처즈, 멘데즈, 헤일
+&lt;상급 시민&gt;
+가르시아, 루이스, 넬슨, 에드워즈, 필립스, 반즈, 제이콥스, 크로스, 프로이드
+&lt;중급 시민&gt;
+테일러, 화이트, 잭슨, 앤더슨, 로드리게즈, 알렌, 콜린스, 로저스, 레이놀즈, 보이드, 해리슨, 라모스, 가렛, 메디나, 다니엘, 델가도, 오르테가, 무디
+&lt;하급 시민&gt;
+스미스, 데이비스, 마틴, 그린, 페레즈, 하워드, 알렉산더, 마이어스, 디아즈, 스티븐스, 라일리, 루이즈, 라이언, 메이어, 산티아, 슈나이더, 모란, 하몬
+&lt;최하급 시민&gt;
+브라운, 그레이, 젠킨스, 왓슨, 오티즈, 로즈, 페르난데즈, 오브라이언, 프랜시스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -628,11 +629,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E50"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="42.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -928,7 +932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="346.5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>6</v>
       </c>
@@ -936,7 +940,7 @@
         <v>36</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -961,7 +965,7 @@
         <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -972,7 +976,7 @@
         <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -986,7 +990,7 @@
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -997,7 +1001,7 @@
         <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
@@ -1011,7 +1015,7 @@
         <v>36</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -1036,7 +1040,7 @@
         <v>36</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -1047,7 +1051,7 @@
         <v>35</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D31" t="s">
         <v>16</v>
@@ -1061,7 +1065,7 @@
         <v>36</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1072,7 +1076,7 @@
         <v>35</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D33">
         <v>5</v>
@@ -1086,7 +1090,7 @@
         <v>35</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
         <v>19</v>
@@ -1100,7 +1104,7 @@
         <v>36</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -1111,7 +1115,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D36" t="s">
         <v>21</v>
@@ -1125,7 +1129,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1150,7 +1154,7 @@
         <v>36</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1161,7 +1165,7 @@
         <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D40" t="s">
         <v>24</v>
@@ -1175,7 +1179,7 @@
         <v>36</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1200,7 +1204,7 @@
         <v>35</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D43" t="s">
         <v>27</v>
@@ -1214,7 +1218,7 @@
         <v>35</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D44" t="s">
         <v>30</v>
@@ -1228,7 +1232,7 @@
         <v>36</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -1239,7 +1243,7 @@
         <v>35</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D46" t="s">
         <v>32</v>
@@ -1253,7 +1257,7 @@
         <v>36</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -1264,7 +1268,7 @@
         <v>35</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D48" t="s">
         <v>34</v>
@@ -1278,7 +1282,7 @@
         <v>36</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/GuideResources/GuideDB_day6.xlsx
+++ b/Assets/Resources/GuideResources/GuideDB_day6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\행잉\Hanging\Assets\Resources\GuideResources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\행잉\Data\가이드창\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -182,6 +182,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;최상급 시민&gt;
+마르티네즈, 헤르난데즈, 로페즈, 산체스, 리베라, 러셀, 리처즈, 멘데즈, 헤일
+&lt;상급 시민&gt;
+가르시아, 루이스, 넬슨, 에드워즈, 필립스, 반즈, 제이콥스, 크로스, 프로이드
+&lt;중급 시민&gt;테일러, 화이트, 잭슨, 앤더슨, 로드리게즈, 알렌, 콜린스, 로저스, 레이놀즈, 보이드, 해리슨, 라모스, 가렛, 메디나, 다니엘, 델가도, 오르테가, 무디
+&lt;하급 시민&gt;
+스미스, 데이비스, 마틴, 그린, 페레즈, 하워드, 알렉산더, 마이어스, 디아즈, 스티븐스, 라일리, 루이즈, 라이언, 메이어, 산티아, 슈나이더, 모란, 하몬
+&lt;최하급 시민&gt;
+브라운, 그레이, 젠킨스, 왓슨, 오티즈, 로즈, 페르난데즈, 오브라이언, 프랜시스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1급: 살인 / 2급: 상해, 폭행, 강도 / 3급: 강간, 강제 추행 / 4급: 협박, 공갈, 사기 / 5급: 모욕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -281,19 +293,6 @@
   </si>
   <si>
     <t>G등급 구역 밖에 있는 최하급 시민은 불법 이동자로 취급, 이 경우 무조건 사형한다. (1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;최상급 시민&gt;
-마르티네즈, 헤르난데즈, 로페즈, 산체스, 리베라, 러셀, 리처즈, 멘데즈, 헤일
-&lt;상급 시민&gt;
-가르시아, 루이스, 넬슨, 에드워즈, 필립스, 반즈, 제이콥스, 크로스, 프로이드
-&lt;중급 시민&gt;
-테일러, 화이트, 잭슨, 앤더슨, 로드리게즈, 알렌, 콜린스, 로저스, 레이놀즈, 보이드, 해리슨, 라모스, 가렛, 메디나, 다니엘, 델가도, 오르테가, 무디
-&lt;하급 시민&gt;
-스미스, 데이비스, 마틴, 그린, 페레즈, 하워드, 알렉산더, 마이어스, 디아즈, 스티븐스, 라일리, 루이즈, 라이언, 메이어, 산티아, 슈나이더, 모란, 하몬
-&lt;최하급 시민&gt;
-브라운, 그레이, 젠킨스, 왓슨, 오티즈, 로즈, 페르난데즈, 오브라이언, 프랜시스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -629,14 +628,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="42.25" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -932,7 +928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="346.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>6</v>
       </c>
@@ -940,7 +936,7 @@
         <v>36</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -965,7 +961,7 @@
         <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -976,7 +972,7 @@
         <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -990,7 +986,7 @@
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1001,7 +997,7 @@
         <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
@@ -1015,7 +1011,7 @@
         <v>36</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -1040,7 +1036,7 @@
         <v>36</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -1051,7 +1047,7 @@
         <v>35</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D31" t="s">
         <v>16</v>
@@ -1065,7 +1061,7 @@
         <v>36</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1076,7 +1072,7 @@
         <v>35</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D33">
         <v>5</v>
@@ -1090,7 +1086,7 @@
         <v>35</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D34" t="s">
         <v>19</v>
@@ -1104,7 +1100,7 @@
         <v>36</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -1115,7 +1111,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D36" t="s">
         <v>21</v>
@@ -1129,7 +1125,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1154,7 +1150,7 @@
         <v>36</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1165,7 +1161,7 @@
         <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D40" t="s">
         <v>24</v>
@@ -1179,7 +1175,7 @@
         <v>36</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1204,7 +1200,7 @@
         <v>35</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D43" t="s">
         <v>27</v>
@@ -1218,7 +1214,7 @@
         <v>35</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D44" t="s">
         <v>30</v>
@@ -1232,7 +1228,7 @@
         <v>36</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -1243,7 +1239,7 @@
         <v>35</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D46" t="s">
         <v>32</v>
@@ -1257,7 +1253,7 @@
         <v>36</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -1268,7 +1264,7 @@
         <v>35</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D48" t="s">
         <v>34</v>
@@ -1282,7 +1278,7 @@
         <v>36</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
